--- a/glider generator.xlsx
+++ b/glider generator.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57e77ed72254c448/Documents/GitHub/lktrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C1726F3F-41FD-4700-BD64-A36040DE111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791D5AD1-1EA6-49F4-9A6F-C6271D05A719}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{C1726F3F-41FD-4700-BD64-A36040DE111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98BA949-2924-4F06-A223-88006B95E0E4}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="600" windowWidth="13090" windowHeight="9835" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="13090" windowHeight="9835" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>ref_class</t>
   </si>
@@ -54,42 +57,6 @@
     <t>aircraft_registration</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>        "name": "Lumpy Paterson",</t>
-  </si>
-  <si>
-    <t>        "comp": "open",</t>
-  </si>
-  <si>
-    <t>        "cn": "VW",</t>
-  </si>
-  <si>
-    <t>        "glider": "Quintus",</t>
-  </si>
-  <si>
-    <t>        "flarm": [</t>
-  </si>
-  <si>
-    <t>            "DDEA40"</t>
-  </si>
-  <si>
-    <t>        ]</t>
-  </si>
-  <si>
-    <t>    },</t>
-  </si>
-  <si>
-    <t>{        "name": "Lumpy Paterson",        "comp": "open",        "cn": "VW",        "glider": "Quintus",        "flarm": [            "DDEA40"        ]    },</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Open-18m</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -283,6 +250,24 @@
   </si>
   <si>
     <t>7C2EF9</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>DD51C1</t>
+  </si>
+  <si>
+    <t>DF0AC9</t>
+  </si>
+  <si>
+    <t>DDB3D2</t>
+  </si>
+  <si>
+    <t>DDB409</t>
+  </si>
+  <si>
+    <t>7C6CE3</t>
   </si>
 </sst>
 </file>
@@ -335,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,13 +623,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D63A99-35FA-4916-AEE8-0B88647505A1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="D18" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="10.04296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.2265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.31640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -661,437 +660,444 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H2" t="str">
         <f>"{""name"": """&amp;B2&amp;""",""comp"": """&amp;A2&amp;""",""cn"": """&amp;D2&amp;""", ""glider"":"""&amp;C2&amp;""", ""flarm"": ["""&amp;F2&amp;"""]},"</f>
-        <v>{"name": "Mark Berry","comp": "Club","cn": "GAD", "glider":"VentusA", "flarm": ["NA"]},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "Mark Berry","comp": "Sport","cn": "GAD", "glider":"VentusA", "flarm": ["NA"]},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H19" si="0">"{""name"": """&amp;B3&amp;""",""comp"": """&amp;A3&amp;""",""cn"": """&amp;D3&amp;""", ""glider"":"""&amp;C3&amp;""", ""flarm"": ["""&amp;F3&amp;"""]},"</f>
-        <v>{"name": "Kel Burgess","comp": "Club","cn": "XBY", "glider":"Discus2", "flarm": ["DDB3BA"]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "Kel Burgess","comp": "Sport","cn": "XBY", "glider":"Discus2", "flarm": ["DDB3BA"]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Raymond Caldon","comp": "Club","cn": "NZE", "glider":"LS6A", "flarm": ["DDB77C"]},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "Raymond Caldon","comp": "Sport","cn": "NZE", "glider":"LS6A", "flarm": ["DDB77C"]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "David Fagan","comp": "Club","cn": "UHW", "glider":"JS1C TJ 21m", "flarm": ["DF0CBB"]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "David Fagan","comp": "Sport","cn": "UHW", "glider":"JS1C TJ 21m", "flarm": ["DF0CBB"]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Jacques Graells","comp": "Club","cn": "K1", "glider":"JS1a", "flarm": ["D00E0D"]},</v>
+        <v>{"name": "Jacques Graells","comp": "Sport","cn": "K1", "glider":"JS1a", "flarm": ["D00E0D"]},</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Martin Hurst","comp": "Club","cn": "MQN", "glider":"PIK20e", "flarm": ["NA"]},</v>
+        <v>{"name": "Martin Hurst","comp": "Sport","cn": "MQN", "glider":"PIK20e", "flarm": ["NA"]},</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name": "Kris Kauffman","comp": "Sport","cn": "ZGR", "glider":"ASW20-16.6M", "flarm": ["NA"]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name": "Mathias Kopp","comp": "Sport","cn": "UCJ", "glider":"ASG32", "flarm": ["7C6591"]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name": "Mark Laird","comp": "Sport","cn": "GLL", "glider":"Grob103SL", "flarm": ["DDB363"]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name": "Ian Sawell","comp": "Sport","cn": "KYL", "glider":"LS6a", "flarm": ["D01349"]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name": "Nicholas Singer","comp": "Sport","cn": "F1", "glider":"JS1a", "flarm": ["DDDFF9"]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Kris Kauffman","comp": "Club","cn": "ZGR", "glider":"ASW20-16.6M", "flarm": ["NA"]},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Mathias Kopp","comp": "Club","cn": "UCJ", "glider":"ASG32", "flarm": ["7C6591"]},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Mark Laird","comp": "Club","cn": "GLL", "glider":"Grob103SL", "flarm": ["DDB363"]},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Ian Sawell","comp": "Club","cn": "KYL", "glider":"LS6a", "flarm": ["D01349"]},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Nicholas Singer","comp": "Club","cn": "F1", "glider":"JS1a", "flarm": ["DDDFF9"]},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Justin Smith","comp": "Club","cn": "CHA", "glider":"Arcus", "flarm": ["DDEE26"]},</v>
+        <v>{"name": "Justin Smith","comp": "Sport","cn": "CHA", "glider":"Arcus", "flarm": ["DDEE26"]},</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "David Turner","comp": "Club","cn": "GRT", "glider":"ASW27", "flarm": ["NA"]},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "David Turner","comp": "Sport","cn": "GRT", "glider":"ASW27", "flarm": ["NA"]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Andrew White","comp": "Club","cn": "OYE", "glider":"JS1a", "flarm": ["7C4A44"]},</v>
+        <v>{"name": "Andrew White","comp": "Sport","cn": "OYE", "glider":"JS1a", "flarm": ["7C4A44"]},</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Bruce Wynne","comp": "Club","cn": "GIN", "glider":"DiscusB", "flarm": ["NA"]},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "Bruce Wynne","comp": "Sport","cn": "GIN", "glider":"DiscusB", "flarm": ["NA"]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Milan Sejka","comp": "Club","cn": "M1", "glider":"LS8", "flarm": ["DDF0A2"]},</v>
+        <v>{"name": "Milan Sejka","comp": "Sport","cn": "M1", "glider":"LS8", "flarm": ["DDF0A2"]},</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Chuck Yaeger","comp": "Open-18m","cn": "CHK", "glider":"LS 8", "flarm": ["NA"]},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+        <v>{"name": "Chuck Yaeger","comp": "Sport","cn": "CHK", "glider":"LS 8", "flarm": ["NA"]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>{"name": "Jacob Bloom","comp": "Open-18m","cn": "JKB", "glider":"JS3 RES 15m", "flarm": ["7C2EF9"]},</v>
+        <v>{"name": "Jacob Bloom","comp": "Sport","cn": "JKB", "glider":"JS3 RES 15m", "flarm": ["7C2EF9"]},</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H19" xr:uid="{B4D63A99-35FA-4916-AEE8-0B88647505A1}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1099,68 +1105,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B6149-B7AC-4CB6-B514-F06CDD367420}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A10" t="str">
-        <f>TRIM(A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9)</f>
-        <v>{        "name": "Lumpy Paterson",        "comp": "open",        "cn": "VW",        "glider": "Quintus",        "flarm": [            "DDEA40"        ]    },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
